--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>url</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>CourseIntro</t>
+  </si>
+  <si>
+    <t>ManagementProcess</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +531,12 @@
         <f>C3+2</f>
         <v>44581</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -897,19 +906,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A2:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>url</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>ManagementProcess</t>
+  </si>
+  <si>
+    <t>ManagementTools</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +552,12 @@
         <f>C4+5</f>
         <v>44586</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -908,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,6 +570,9 @@
         <f>C5+2</f>
         <v>44588</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -918,7 +921,7 @@
   <dimension ref="A2:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,11 +931,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>url</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>ManagementTools</t>
+  </si>
+  <si>
+    <t>FoundationalModels</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +576,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -584,6 +590,12 @@
       <c r="C7" s="1">
         <f>C6+5</f>
         <v>44593</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,7 +933,7 @@
   <dimension ref="A2:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,11 +943,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>url</t>
   </si>
@@ -133,6 +133,60 @@
   </si>
   <si>
     <t>FoundationalModels</t>
+  </si>
+  <si>
+    <t>Depletion Methods</t>
+  </si>
+  <si>
+    <t>Removal Methods</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>Mark-Recapture I</t>
+  </si>
+  <si>
+    <t>Mark-Recapture II</t>
+  </si>
+  <si>
+    <t>MarkRecapture1</t>
+  </si>
+  <si>
+    <t>MarkRecapture2</t>
+  </si>
+  <si>
+    <t>Ageing Fish</t>
+  </si>
+  <si>
+    <t>Weight-Length</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AgeLengthKey</t>
+  </si>
+  <si>
+    <t>StockRecruitment</t>
+  </si>
+  <si>
+    <t>WeightLength</t>
+  </si>
+  <si>
+    <t>MortalityComponents</t>
+  </si>
+  <si>
+    <t>SizeStructure</t>
+  </si>
+  <si>
+    <t>BagLimits</t>
+  </si>
+  <si>
+    <t>SizeLimits</t>
+  </si>
+  <si>
+    <t>CWH</t>
   </si>
 </sst>
 </file>
@@ -468,7 +522,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,6 +663,12 @@
         <f>C7+2</f>
         <v>44595</v>
       </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -621,6 +681,12 @@
         <f>C8+5</f>
         <v>44600</v>
       </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -633,6 +699,12 @@
         <f>C9+2</f>
         <v>44602</v>
       </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -645,6 +717,12 @@
         <f>C10+5</f>
         <v>44607</v>
       </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -657,6 +735,12 @@
         <f>C11+2</f>
         <v>44609</v>
       </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -669,6 +753,12 @@
         <f>C12+5</f>
         <v>44614</v>
       </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -681,6 +771,12 @@
         <f>C13+2</f>
         <v>44616</v>
       </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -693,6 +789,12 @@
         <f>C14+5</f>
         <v>44621</v>
       </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -705,8 +807,14 @@
         <f>C15+2</f>
         <v>44623</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -718,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -730,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -741,8 +849,14 @@
         <f>C18+5</f>
         <v>44635</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -753,8 +867,14 @@
         <f>C19+2</f>
         <v>44637</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -765,8 +885,14 @@
         <f>C20+5</f>
         <v>44642</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -777,8 +903,14 @@
         <f>C21+2</f>
         <v>44644</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -789,8 +921,14 @@
         <f>C22+5</f>
         <v>44649</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -801,8 +939,14 @@
         <f>C23+2</f>
         <v>44651</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -813,8 +957,14 @@
         <f>C24+5</f>
         <v>44656</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -826,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -837,8 +987,14 @@
         <f>C26+5</f>
         <v>44663</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -849,8 +1005,11 @@
         <f>C27+2</f>
         <v>44665</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -861,8 +1020,11 @@
         <f>C28+5</f>
         <v>44670</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -877,10 +1039,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>url</t>
   </si>
@@ -135,15 +135,6 @@
     <t>FoundationalModels</t>
   </si>
   <si>
-    <t>Depletion Methods</t>
-  </si>
-  <si>
-    <t>Removal Methods</t>
-  </si>
-  <si>
-    <t>Removal</t>
-  </si>
-  <si>
     <t>Mark-Recapture I</t>
   </si>
   <si>
@@ -187,6 +178,9 @@
   </si>
   <si>
     <t>CWH</t>
+  </si>
+  <si>
+    <t>Depletion/Removal Methods</t>
   </si>
 </sst>
 </file>
@@ -522,7 +516,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +658,7 @@
         <v>44595</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -682,7 +676,7 @@
         <v>44600</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -700,10 +694,10 @@
         <v>44602</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,10 +730,10 @@
         <v>44609</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,10 +748,10 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,10 +766,10 @@
         <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,10 +784,10 @@
         <v>44621</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,10 +802,10 @@
         <v>44623</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -850,10 +844,10 @@
         <v>44635</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -868,10 +862,10 @@
         <v>44637</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,10 +880,10 @@
         <v>44642</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,10 +898,10 @@
         <v>44644</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -922,10 +916,10 @@
         <v>44649</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,10 +934,10 @@
         <v>44651</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,10 +952,10 @@
         <v>44656</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -986,12 +980,6 @@
       <c r="C27" s="1">
         <f>C26+5</f>
         <v>44663</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>url</t>
   </si>
@@ -165,9 +165,6 @@
     <t>WeightLength</t>
   </si>
   <si>
-    <t>MortalityComponents</t>
-  </si>
-  <si>
     <t>SizeStructure</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>Depletion/Removal Methods</t>
+  </si>
+  <si>
+    <t>Mortality II</t>
+  </si>
+  <si>
+    <t>Mortality1</t>
+  </si>
+  <si>
+    <t>Mortality2</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +664,7 @@
         <v>44595</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -748,10 +754,10 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,10 +772,10 @@
         <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,7 +907,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>url</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Mortality2</t>
+  </si>
+  <si>
+    <t>Mortality I</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +757,7 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>url</t>
   </si>
@@ -165,9 +165,6 @@
     <t>WeightLength</t>
   </si>
   <si>
-    <t>SizeStructure</t>
-  </si>
-  <si>
     <t>BagLimits</t>
   </si>
   <si>
@@ -190,6 +187,18 @@
   </si>
   <si>
     <t>Mortality I</t>
+  </si>
+  <si>
+    <t>Size Structure I</t>
+  </si>
+  <si>
+    <t>SizeStructure1</t>
+  </si>
+  <si>
+    <t>Size Structure II</t>
+  </si>
+  <si>
+    <t>SizeStructure2</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +676,7 @@
         <v>44595</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -757,10 +766,10 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -775,10 +784,10 @@
         <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,10 +862,10 @@
         <v>44635</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,10 +880,10 @@
         <v>44637</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,10 +898,10 @@
         <v>44642</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,10 +916,10 @@
         <v>44644</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,10 +934,10 @@
         <v>44649</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,10 +952,10 @@
         <v>44651</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,10 +970,10 @@
         <v>44656</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -989,6 +998,12 @@
       <c r="C27" s="1">
         <f>C26+5</f>
         <v>44663</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>url</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Getting Organized</t>
   </si>
   <si>
-    <t>Capstone Assignment</t>
-  </si>
-  <si>
     <t>NO CLASS (MIDTERM BREAK)</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Ageing Fish</t>
   </si>
   <si>
-    <t>Weight-Length</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>StockRecruitment</t>
   </si>
   <si>
-    <t>WeightLength</t>
-  </si>
-  <si>
     <t>BagLimits</t>
   </si>
   <si>
@@ -199,6 +190,21 @@
   </si>
   <si>
     <t>SizeStructure2</t>
+  </si>
+  <si>
+    <t>Weight-Length &amp; Condition</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>Final Exam Prep</t>
+  </si>
+  <si>
+    <t>Midterm Exam Prep</t>
+  </si>
+  <si>
+    <t>Midterm Exam</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,10 +592,10 @@
         <v>44579</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,10 +610,10 @@
         <v>44581</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,10 +628,10 @@
         <v>44586</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,10 +646,10 @@
         <v>44588</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,10 +664,10 @@
         <v>44593</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,10 +682,10 @@
         <v>44595</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,10 +700,10 @@
         <v>44600</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,10 +718,10 @@
         <v>44602</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,10 +736,10 @@
         <v>44607</v>
       </c>
       <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,10 +754,10 @@
         <v>44609</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,10 +772,10 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -784,10 +790,10 @@
         <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,10 +808,7 @@
         <v>44621</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,10 +823,7 @@
         <v>44623</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>44628</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
         <v>44630</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>44635</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,10 +880,10 @@
         <v>44637</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,10 +898,10 @@
         <v>44642</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,10 +916,10 @@
         <v>44644</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -934,10 +934,10 @@
         <v>44649</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,10 +952,10 @@
         <v>44651</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,10 +970,10 @@
         <v>44656</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>44658</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,7 +1018,10 @@
         <v>44665</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1033,7 +1036,7 @@
         <v>44670</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,7 +1051,7 @@
         <v>44672</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,87 +1117,87 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>url</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Midterm Exam</t>
+  </si>
+  <si>
+    <t>GetOrganized</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,6 +581,9 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>url</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>GetOrganized</t>
+  </si>
+  <si>
+    <t>MT1</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,6 +818,9 @@
       </c>
       <c r="D15" t="s">
         <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -201,16 +201,16 @@
     <t>Final Exam Prep</t>
   </si>
   <si>
-    <t>Midterm Exam Prep</t>
-  </si>
-  <si>
-    <t>Midterm Exam</t>
-  </si>
-  <si>
     <t>GetOrganized</t>
   </si>
   <si>
     <t>MT1</t>
+  </si>
+  <si>
+    <t>Midterm Exam (prep in link)</t>
+  </si>
+  <si>
+    <t>NO CLASS (SNOW DAY)</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,10 +781,7 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,10 +796,10 @@
         <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -817,10 +814,10 @@
         <v>44621</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,6 +832,9 @@
         <v>44623</v>
       </c>
       <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
       </c>
     </row>

--- a/resources/Dates_349.xlsx
+++ b/resources/Dates_349.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>url</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Weight-Length &amp; Condition</t>
   </si>
   <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
     <t>Final Exam Prep</t>
   </si>
   <si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>NO CLASS (SNOW DAY)</t>
+  </si>
+  <si>
+    <t>MT2</t>
+  </si>
+  <si>
+    <t>Final Exam (prep in link)</t>
   </si>
 </sst>
 </file>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -781,7 +784,7 @@
         <v>44614</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,10 +835,10 @@
         <v>44623</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,7 +1051,7 @@
         <v>44670</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,7 +1066,10 @@
         <v>44672</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
